--- a/respirometry/output/processed_summary.xlsx
+++ b/respirometry/output/processed_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Dropbox\UW\Postdoc\2021_PSMFC_mytilus_byssus_pilot\PSMFC-mytilus-byssus-pilot\respirometry\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD7AA18-F693-4BBD-9A3B-1C36B6E44419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424F3499-006B-4E7D-9872-571A53BCE888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="2" r:id="rId1"/>
@@ -6240,9 +6240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542DFB18-4397-448D-A1FA-F7943DD34DC9}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6300,18 +6300,18 @@
         <v>107</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f>E2&amp;"-"&amp;C2</f>
+        <f t="shared" ref="F2:F33" si="0">E2&amp;"-"&amp;C2</f>
         <v>gallo-OA</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f>E2&amp;"-"&amp;A2</f>
+        <f t="shared" ref="G2:G33" si="1">E2&amp;"-"&amp;A2</f>
         <v>gallo-baseline</v>
       </c>
       <c r="H2" s="3">
         <v>16.312083892037805</v>
       </c>
       <c r="I2" s="3">
-        <f>(H2/44.6596)/J2</f>
+        <f t="shared" ref="I2:I33" si="2">(H2/44.6596)/J2</f>
         <v>6.1907405836624657E-2</v>
       </c>
       <c r="J2" s="3">
@@ -6337,18 +6337,18 @@
         <v>107</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f>E3&amp;"-"&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>gallo-OA</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f>E3&amp;"-"&amp;A3</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H3" s="3">
         <v>18.00556025887289</v>
       </c>
       <c r="I3" s="3">
-        <f>(H3/44.6596)/J3</f>
+        <f t="shared" si="2"/>
         <v>6.8334465028465005E-2</v>
       </c>
       <c r="J3" s="3">
@@ -6374,18 +6374,18 @@
         <v>107</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f>E4&amp;"-"&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>gallo-OA</v>
       </c>
       <c r="G4" s="3" t="str">
-        <f>E4&amp;"-"&amp;A4</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H4" s="3">
         <v>37.761872442804901</v>
       </c>
       <c r="I4" s="3">
-        <f>(H4/44.6596)/J4</f>
+        <f t="shared" si="2"/>
         <v>0.12079268972662062</v>
       </c>
       <c r="J4" s="3">
@@ -6411,18 +6411,18 @@
         <v>107</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f>E5&amp;"-"&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>gallo-OA</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f>E5&amp;"-"&amp;A5</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H5" s="3">
         <v>23.603306900977088</v>
       </c>
       <c r="I5" s="3">
-        <f>(H5/44.6596)/J5</f>
+        <f t="shared" si="2"/>
         <v>8.0078160605114357E-2</v>
       </c>
       <c r="J5" s="3">
@@ -6448,18 +6448,18 @@
         <v>107</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f>E6&amp;"-"&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>gallo-OA</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f>E6&amp;"-"&amp;A6</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H6" s="3">
         <v>16.837319109003261</v>
       </c>
       <c r="I6" s="3">
-        <f>(H6/44.6596)/J6</f>
+        <f t="shared" si="2"/>
         <v>5.3859221786271713E-2</v>
       </c>
       <c r="J6" s="3">
@@ -6485,18 +6485,18 @@
         <v>107</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f>E7&amp;"-"&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>gallo-OA</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f>E7&amp;"-"&amp;A7</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H7" s="3">
         <v>17.129198458603355</v>
       </c>
       <c r="I7" s="3">
-        <f>(H7/44.6596)/J7</f>
+        <f t="shared" si="2"/>
         <v>5.0467131421862495E-2</v>
       </c>
       <c r="J7" s="3">
@@ -6519,18 +6519,18 @@
         <v>107</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f>E8&amp;"-"&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>gallo-OA</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f>E8&amp;"-"&amp;A8</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H8" s="3">
         <v>26.372415412150502</v>
       </c>
       <c r="I8" s="3">
-        <f>(H8/44.6596)/J8</f>
+        <f t="shared" si="2"/>
         <v>8.3171920615874098E-2</v>
       </c>
       <c r="J8" s="3">
@@ -6553,18 +6553,18 @@
         <v>107</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f>E9&amp;"-"&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>gallo-OA</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f>E9&amp;"-"&amp;A9</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H9" s="3">
         <v>39.270813347590803</v>
       </c>
       <c r="I9" s="3">
-        <f>(H9/44.6596)/J9</f>
+        <f t="shared" si="2"/>
         <v>0.1373963176016145</v>
       </c>
       <c r="J9" s="3">
@@ -6587,18 +6587,18 @@
         <v>107</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f>E10&amp;"-"&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>gallo-OA</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f>E10&amp;"-"&amp;A10</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H10" s="3">
         <v>52.537968964574034</v>
       </c>
       <c r="I10" s="3">
-        <f>(H10/44.6596)/J10</f>
+        <f t="shared" si="2"/>
         <v>0.19285398430508008</v>
       </c>
       <c r="J10" s="3">
@@ -6621,11 +6621,11 @@
         <v>108</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f>E11&amp;"-"&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>tross-OA</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f>E11&amp;"-"&amp;A11</f>
+        <f t="shared" si="1"/>
         <v>tross-baseline</v>
       </c>
       <c r="H11" s="3">
@@ -6658,18 +6658,18 @@
         <v>108</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f>E12&amp;"-"&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>tross-OA</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f>E12&amp;"-"&amp;A12</f>
+        <f t="shared" si="1"/>
         <v>tross-baseline</v>
       </c>
       <c r="H12" s="3">
         <v>4.160555176128014</v>
       </c>
       <c r="I12" s="3">
-        <f>(H12/44.6596)/J12</f>
+        <f t="shared" si="2"/>
         <v>1.5026047847993721E-2</v>
       </c>
       <c r="J12" s="3">
@@ -6695,18 +6695,18 @@
         <v>108</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f>E13&amp;"-"&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>tross-OA</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f>E13&amp;"-"&amp;A13</f>
+        <f t="shared" si="1"/>
         <v>tross-baseline</v>
       </c>
       <c r="H13" s="3">
         <v>12.568515837959101</v>
       </c>
       <c r="I13" s="3">
-        <f>(H13/44.6596)/J13</f>
+        <f t="shared" si="2"/>
         <v>4.690486792671341E-2</v>
       </c>
       <c r="J13" s="3">
@@ -6732,18 +6732,18 @@
         <v>108</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f>E14&amp;"-"&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>tross-OA</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f>E14&amp;"-"&amp;A14</f>
+        <f t="shared" si="1"/>
         <v>tross-baseline</v>
       </c>
       <c r="H14" s="3">
         <v>11.6314040477844</v>
       </c>
       <c r="I14" s="3">
-        <f>(H14/44.6596)/J14</f>
+        <f t="shared" si="2"/>
         <v>4.3407628847938633E-2</v>
       </c>
       <c r="J14" s="3">
@@ -6769,18 +6769,18 @@
         <v>108</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f>E15&amp;"-"&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>tross-OA</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f>E15&amp;"-"&amp;A15</f>
+        <f t="shared" si="1"/>
         <v>tross-baseline</v>
       </c>
       <c r="H15" s="3">
         <v>9.0755237392244226</v>
       </c>
       <c r="I15" s="3">
-        <f>(H15/44.6596)/J15</f>
+        <f t="shared" si="2"/>
         <v>3.5651845229969704E-2</v>
       </c>
       <c r="J15" s="3">
@@ -6803,18 +6803,18 @@
         <v>107</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f>E16&amp;"-"&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f>E16&amp;"-"&amp;A16</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H16" s="3">
         <v>13.296946028621335</v>
       </c>
       <c r="I16" s="3">
-        <f>(H16/44.6596)/J16</f>
+        <f t="shared" si="2"/>
         <v>4.880982404246291E-2</v>
       </c>
       <c r="J16" s="3">
@@ -6840,18 +6840,18 @@
         <v>107</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f>E17&amp;"-"&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f>E17&amp;"-"&amp;A17</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H17" s="3">
         <v>18.21194013885389</v>
       </c>
       <c r="I17" s="3">
-        <f>(H17/44.6596)/J17</f>
+        <f t="shared" si="2"/>
         <v>6.3717893727125191E-2</v>
       </c>
       <c r="J17" s="3">
@@ -6874,18 +6874,18 @@
         <v>107</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f>E18&amp;"-"&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G18" s="3" t="str">
-        <f>E18&amp;"-"&amp;A18</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H18" s="3">
         <v>21.204816737806539</v>
       </c>
       <c r="I18" s="3">
-        <f>(H18/44.6596)/J18</f>
+        <f t="shared" si="2"/>
         <v>8.6329058591114449E-2</v>
       </c>
       <c r="J18" s="3">
@@ -6908,18 +6908,18 @@
         <v>107</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f>E19&amp;"-"&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G19" s="3" t="str">
-        <f>E19&amp;"-"&amp;A19</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H19" s="3">
         <v>16.432526512995281</v>
       </c>
       <c r="I19" s="3">
-        <f>(H19/44.6596)/J19</f>
+        <f t="shared" si="2"/>
         <v>6.690010867253332E-2</v>
       </c>
       <c r="J19" s="3">
@@ -6945,18 +6945,18 @@
         <v>107</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f>E20&amp;"-"&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G20" s="3" t="str">
-        <f>E20&amp;"-"&amp;A20</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H20" s="3">
         <v>17.847104047424835</v>
       </c>
       <c r="I20" s="3">
-        <f>(H20/44.6596)/J20</f>
+        <f t="shared" si="2"/>
         <v>7.1361652715464935E-2</v>
       </c>
       <c r="J20" s="3">
@@ -6982,18 +6982,18 @@
         <v>107</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f>E21&amp;"-"&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f>E21&amp;"-"&amp;A21</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H21" s="3">
         <v>18.894123676661707</v>
       </c>
       <c r="I21" s="3">
-        <f>(H21/44.6596)/J21</f>
+        <f t="shared" si="2"/>
         <v>5.4239705422573482E-2</v>
       </c>
       <c r="J21" s="3">
@@ -7019,18 +7019,18 @@
         <v>107</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f>E22&amp;"-"&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f>E22&amp;"-"&amp;A22</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H22" s="3">
         <v>26.025102872558193</v>
       </c>
       <c r="I22" s="3">
-        <f>(H22/44.6596)/J22</f>
+        <f t="shared" si="2"/>
         <v>9.8770127479407666E-2</v>
       </c>
       <c r="J22" s="3">
@@ -7053,18 +7053,18 @@
         <v>107</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f>E23&amp;"-"&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f>E23&amp;"-"&amp;A23</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H23" s="3">
         <v>31.301702251779517</v>
       </c>
       <c r="I23" s="3">
-        <f>(H23/44.6596)/J23</f>
+        <f t="shared" si="2"/>
         <v>0.1347875512844319</v>
       </c>
       <c r="J23" s="3">
@@ -7087,18 +7087,18 @@
         <v>107</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f>E24&amp;"-"&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f>E24&amp;"-"&amp;A24</f>
+        <f t="shared" si="1"/>
         <v>gallo-final</v>
       </c>
       <c r="H24" s="3">
         <v>30.45061689632098</v>
       </c>
       <c r="I24" s="3">
-        <f>(H24/44.6596)/J24</f>
+        <f t="shared" si="2"/>
         <v>0.11177673801899139</v>
       </c>
       <c r="J24" s="3">
@@ -7124,18 +7124,18 @@
         <v>107</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f>E25&amp;"-"&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f>E25&amp;"-"&amp;A25</f>
+        <f t="shared" si="1"/>
         <v>gallo-final</v>
       </c>
       <c r="H25" s="3">
         <v>6.8447554657246599</v>
       </c>
       <c r="I25" s="3">
-        <f>(H25/44.6596)/J25</f>
+        <f t="shared" si="2"/>
         <v>2.3947662798580328E-2</v>
       </c>
       <c r="J25" s="3">
@@ -7158,18 +7158,18 @@
         <v>107</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f>E26&amp;"-"&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f>E26&amp;"-"&amp;A26</f>
+        <f t="shared" si="1"/>
         <v>gallo-final</v>
       </c>
       <c r="H26" s="3">
         <v>32.725672777183746</v>
       </c>
       <c r="I26" s="3">
-        <f>(H26/44.6596)/J26</f>
+        <f t="shared" si="2"/>
         <v>0.13323277241901668</v>
       </c>
       <c r="J26" s="3">
@@ -7192,18 +7192,18 @@
         <v>107</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f>E27&amp;"-"&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f>E27&amp;"-"&amp;A27</f>
+        <f t="shared" si="1"/>
         <v>gallo-final</v>
       </c>
       <c r="H27" s="3">
         <v>39.866401537310026</v>
       </c>
       <c r="I27" s="3">
-        <f>(H27/44.6596)/J27</f>
+        <f t="shared" si="2"/>
         <v>0.16230411027298225</v>
       </c>
       <c r="J27" s="3">
@@ -7229,18 +7229,18 @@
         <v>107</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f>E28&amp;"-"&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f>E28&amp;"-"&amp;A28</f>
+        <f t="shared" si="1"/>
         <v>gallo-final</v>
       </c>
       <c r="H28" s="3">
         <v>19.832040181986571</v>
       </c>
       <c r="I28" s="3">
-        <f>(H28/44.6596)/J28</f>
+        <f t="shared" si="2"/>
         <v>7.9298420648266366E-2</v>
       </c>
       <c r="J28" s="3">
@@ -7266,18 +7266,18 @@
         <v>107</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f>E29&amp;"-"&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>gallo-OW</v>
       </c>
       <c r="G29" s="3" t="str">
-        <f>E29&amp;"-"&amp;A29</f>
+        <f t="shared" si="1"/>
         <v>gallo-final</v>
       </c>
       <c r="H29" s="3">
         <v>37.300332552824869</v>
       </c>
       <c r="I29" s="3">
-        <f>(H29/44.6596)/J29</f>
+        <f t="shared" si="2"/>
         <v>0.10707874492894764</v>
       </c>
       <c r="J29" s="3">
@@ -7300,18 +7300,18 @@
         <v>107</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f>E30&amp;"-"&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>gallo-DO</v>
       </c>
       <c r="G30" s="3" t="str">
-        <f>E30&amp;"-"&amp;A30</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H30" s="3">
         <v>16.236966997264886</v>
       </c>
       <c r="I30" s="3">
-        <f>(H30/44.6596)/J30</f>
+        <f t="shared" si="2"/>
         <v>5.346642747144309E-2</v>
       </c>
       <c r="J30" s="3">
@@ -7334,18 +7334,18 @@
         <v>107</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f>E31&amp;"-"&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>gallo-DO</v>
       </c>
       <c r="G31" s="3" t="str">
-        <f>E31&amp;"-"&amp;A31</f>
+        <f t="shared" si="1"/>
         <v>gallo-final</v>
       </c>
       <c r="H31" s="3">
         <v>33.765637143136075</v>
       </c>
       <c r="I31" s="3">
-        <f>(H31/44.6596)/J31</f>
+        <f t="shared" si="2"/>
         <v>0.11118628187423532</v>
       </c>
       <c r="J31" s="3">
@@ -7368,18 +7368,18 @@
         <v>107</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f>E32&amp;"-"&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>gallo-DO</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f>E32&amp;"-"&amp;A32</f>
+        <f t="shared" si="1"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H32" s="3">
         <v>23.472435041035226</v>
       </c>
       <c r="I32" s="3">
-        <f>(H32/44.6596)/J32</f>
+        <f t="shared" si="2"/>
         <v>9.0618177475821043E-2</v>
       </c>
       <c r="J32" s="3">
@@ -7402,18 +7402,18 @@
         <v>107</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f>E33&amp;"-"&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>gallo-DO</v>
       </c>
       <c r="G33" s="3" t="str">
-        <f>E33&amp;"-"&amp;A33</f>
+        <f t="shared" si="1"/>
         <v>gallo-final</v>
       </c>
       <c r="H33" s="3">
         <v>47.163466212844355</v>
       </c>
       <c r="I33" s="3">
-        <f>(H33/44.6596)/J33</f>
+        <f t="shared" si="2"/>
         <v>0.18208027178171815</v>
       </c>
       <c r="J33" s="3">
@@ -7436,18 +7436,18 @@
         <v>107</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f>E34&amp;"-"&amp;C34</f>
+        <f t="shared" ref="F34:F65" si="3">E34&amp;"-"&amp;C34</f>
         <v>gallo-DO</v>
       </c>
       <c r="G34" s="3" t="str">
-        <f>E34&amp;"-"&amp;A34</f>
+        <f t="shared" ref="G34:G65" si="4">E34&amp;"-"&amp;A34</f>
         <v>gallo-baseline</v>
       </c>
       <c r="H34" s="3">
         <v>22.717012010980568</v>
       </c>
       <c r="I34" s="3">
-        <f>(H34/44.6596)/J34</f>
+        <f t="shared" ref="I34:I65" si="5">(H34/44.6596)/J34</f>
         <v>9.2485508606845679E-2</v>
       </c>
       <c r="J34" s="3">
@@ -7470,18 +7470,18 @@
         <v>107</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f>E35&amp;"-"&amp;C35</f>
+        <f t="shared" si="3"/>
         <v>gallo-DO</v>
       </c>
       <c r="G35" s="3" t="str">
-        <f>E35&amp;"-"&amp;A35</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H35" s="3">
         <v>27.768425917254945</v>
       </c>
       <c r="I35" s="3">
-        <f>(H35/44.6596)/J35</f>
+        <f t="shared" si="5"/>
         <v>0.11305082697176357</v>
       </c>
       <c r="J35" s="3">
@@ -7504,18 +7504,18 @@
         <v>107</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f>E36&amp;"-"&amp;C36</f>
+        <f t="shared" si="3"/>
         <v>gallo-DO</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f>E36&amp;"-"&amp;A36</f>
+        <f t="shared" si="4"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H36" s="3">
         <v>18.094855111191436</v>
       </c>
       <c r="I36" s="3">
-        <f>(H36/44.6596)/J36</f>
+        <f t="shared" si="5"/>
         <v>6.2334276689899173E-2</v>
       </c>
       <c r="J36" s="3">
@@ -7538,18 +7538,18 @@
         <v>107</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f>E37&amp;"-"&amp;C37</f>
+        <f t="shared" si="3"/>
         <v>gallo-DO</v>
       </c>
       <c r="G37" s="3" t="str">
-        <f>E37&amp;"-"&amp;A37</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H37" s="3">
         <v>59.863342069741933</v>
       </c>
       <c r="I37" s="3">
-        <f>(H37/44.6596)/J37</f>
+        <f t="shared" si="5"/>
         <v>0.20622094541389652</v>
       </c>
       <c r="J37" s="3">
@@ -7572,18 +7572,18 @@
         <v>107</v>
       </c>
       <c r="F38" s="3" t="str">
-        <f>E38&amp;"-"&amp;C38</f>
+        <f t="shared" si="3"/>
         <v>gallo-DO</v>
       </c>
       <c r="G38" s="3" t="str">
-        <f>E38&amp;"-"&amp;A38</f>
+        <f t="shared" si="4"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H38" s="3">
         <v>16.431321417280742</v>
       </c>
       <c r="I38" s="3">
-        <f>(H38/44.6596)/J38</f>
+        <f t="shared" si="5"/>
         <v>6.2359934521189146E-2</v>
       </c>
       <c r="J38" s="3">
@@ -7606,18 +7606,18 @@
         <v>107</v>
       </c>
       <c r="F39" s="3" t="str">
-        <f>E39&amp;"-"&amp;C39</f>
+        <f t="shared" si="3"/>
         <v>gallo-DO</v>
       </c>
       <c r="G39" s="3" t="str">
-        <f>E39&amp;"-"&amp;A39</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H39" s="3">
         <v>39.425529765615437</v>
       </c>
       <c r="I39" s="3">
-        <f>(H39/44.6596)/J39</f>
+        <f t="shared" si="5"/>
         <v>0.1496272510414958</v>
       </c>
       <c r="J39" s="3">
@@ -7640,18 +7640,18 @@
         <v>107</v>
       </c>
       <c r="F40" s="3" t="str">
-        <f>E40&amp;"-"&amp;C40</f>
+        <f t="shared" si="3"/>
         <v>gallo-DO</v>
       </c>
       <c r="G40" s="3" t="str">
-        <f>E40&amp;"-"&amp;A40</f>
+        <f t="shared" si="4"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H40" s="3">
         <v>17.253094179349091</v>
       </c>
       <c r="I40" s="3">
-        <f>(H40/44.6596)/J40</f>
+        <f t="shared" si="5"/>
         <v>5.7660361568060148E-2</v>
       </c>
       <c r="J40" s="3">
@@ -7674,18 +7674,18 @@
         <v>107</v>
       </c>
       <c r="F41" s="3" t="str">
-        <f>E41&amp;"-"&amp;C41</f>
+        <f t="shared" si="3"/>
         <v>gallo-DO</v>
       </c>
       <c r="G41" s="3" t="str">
-        <f>E41&amp;"-"&amp;A41</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H41" s="3">
         <v>93.014176564688711</v>
       </c>
       <c r="I41" s="3">
-        <f>(H41/44.6596)/J41</f>
+        <f t="shared" si="5"/>
         <v>0.31085618590634029</v>
       </c>
       <c r="J41" s="3">
@@ -7708,18 +7708,18 @@
         <v>107</v>
       </c>
       <c r="F42" s="3" t="str">
-        <f>E42&amp;"-"&amp;C42</f>
+        <f t="shared" si="3"/>
         <v>gallo-DO</v>
       </c>
       <c r="G42" s="3" t="str">
-        <f>E42&amp;"-"&amp;A42</f>
+        <f t="shared" si="4"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H42" s="3">
         <v>17.541661522543848</v>
       </c>
       <c r="I42" s="3">
-        <f>(H42/44.6596)/J42</f>
+        <f t="shared" si="5"/>
         <v>8.5388240799601431E-2</v>
       </c>
       <c r="J42" s="3">
@@ -7742,18 +7742,18 @@
         <v>107</v>
       </c>
       <c r="F43" s="3" t="str">
-        <f>E43&amp;"-"&amp;C43</f>
+        <f t="shared" si="3"/>
         <v>gallo-DO</v>
       </c>
       <c r="G43" s="3" t="str">
-        <f>E43&amp;"-"&amp;A43</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H43" s="3">
         <v>86.19050493390634</v>
       </c>
       <c r="I43" s="3">
-        <f>(H43/44.6596)/J43</f>
+        <f t="shared" si="5"/>
         <v>0.41955293576251562</v>
       </c>
       <c r="J43" s="3">
@@ -7776,18 +7776,18 @@
         <v>107</v>
       </c>
       <c r="F44" s="3" t="str">
-        <f>E44&amp;"-"&amp;C44</f>
+        <f t="shared" si="3"/>
         <v>gallo-DO</v>
       </c>
       <c r="G44" s="3" t="str">
-        <f>E44&amp;"-"&amp;A44</f>
+        <f t="shared" si="4"/>
         <v>gallo-baseline</v>
       </c>
       <c r="H44" s="3">
         <v>20.445803016080788</v>
       </c>
       <c r="I44" s="3">
-        <f>(H44/44.6596)/J44</f>
+        <f t="shared" si="5"/>
         <v>8.3238961616237214E-2</v>
       </c>
       <c r="J44" s="3">
@@ -7810,18 +7810,18 @@
         <v>107</v>
       </c>
       <c r="F45" s="3" t="str">
-        <f>E45&amp;"-"&amp;C45</f>
+        <f t="shared" si="3"/>
         <v>gallo-DO</v>
       </c>
       <c r="G45" s="3" t="str">
-        <f>E45&amp;"-"&amp;A45</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H45" s="3">
         <v>62.511133141434911</v>
       </c>
       <c r="I45" s="3">
-        <f>(H45/44.6596)/J45</f>
+        <f t="shared" si="5"/>
         <v>0.25449535085782193</v>
       </c>
       <c r="J45" s="3">
@@ -7844,18 +7844,18 @@
         <v>108</v>
       </c>
       <c r="F46" s="3" t="str">
-        <f>E46&amp;"-"&amp;C46</f>
+        <f t="shared" si="3"/>
         <v>tross-OA</v>
       </c>
       <c r="G46" s="3" t="str">
-        <f>E46&amp;"-"&amp;A46</f>
+        <f t="shared" si="4"/>
         <v>tross-baseline</v>
       </c>
       <c r="H46" s="3">
         <v>23.759295282918998</v>
       </c>
       <c r="I46" s="3">
-        <f>(H46/44.6596)/J46</f>
+        <f t="shared" si="5"/>
         <v>9.0170964372603996E-2</v>
       </c>
       <c r="J46" s="3">
@@ -7881,18 +7881,18 @@
         <v>108</v>
       </c>
       <c r="F47" s="3" t="str">
-        <f>E47&amp;"-"&amp;C47</f>
+        <f t="shared" si="3"/>
         <v>tross-OA</v>
       </c>
       <c r="G47" s="3" t="str">
-        <f>E47&amp;"-"&amp;A47</f>
+        <f t="shared" si="4"/>
         <v>tross-baseline</v>
       </c>
       <c r="H47" s="3">
         <v>13.094006176592444</v>
       </c>
       <c r="I47" s="3">
-        <f>(H47/44.6596)/J47</f>
+        <f t="shared" si="5"/>
         <v>4.7289641646937178E-2</v>
       </c>
       <c r="J47" s="3">
@@ -7915,18 +7915,18 @@
         <v>108</v>
       </c>
       <c r="F48" s="3" t="str">
-        <f>E48&amp;"-"&amp;C48</f>
+        <f t="shared" si="3"/>
         <v>tross-OA</v>
       </c>
       <c r="G48" s="3" t="str">
-        <f>E48&amp;"-"&amp;A48</f>
+        <f t="shared" si="4"/>
         <v>tross-baseline</v>
       </c>
       <c r="H48" s="3">
         <v>10.437079912909354</v>
       </c>
       <c r="I48" s="3">
-        <f>(H48/44.6596)/J48</f>
+        <f t="shared" si="5"/>
         <v>3.540953668147958E-2</v>
       </c>
       <c r="J48" s="3">
@@ -7952,18 +7952,18 @@
         <v>108</v>
       </c>
       <c r="F49" s="3" t="str">
-        <f>E49&amp;"-"&amp;C49</f>
+        <f t="shared" si="3"/>
         <v>tross-OA</v>
       </c>
       <c r="G49" s="3" t="str">
-        <f>E49&amp;"-"&amp;A49</f>
+        <f t="shared" si="4"/>
         <v>tross-baseline</v>
       </c>
       <c r="H49" s="3">
         <v>16.070211117665536</v>
       </c>
       <c r="I49" s="3">
-        <f>(H49/44.6596)/J49</f>
+        <f t="shared" si="5"/>
         <v>5.8038350883289257E-2</v>
       </c>
       <c r="J49" s="3">
@@ -7989,18 +7989,18 @@
         <v>107</v>
       </c>
       <c r="F50" s="3" t="str">
-        <f>E50&amp;"-"&amp;C50</f>
+        <f t="shared" si="3"/>
         <v>gallo-OW</v>
       </c>
       <c r="G50" s="3" t="str">
-        <f>E50&amp;"-"&amp;A50</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H50" s="3">
         <v>7.0428335538228168</v>
       </c>
       <c r="I50" s="3">
-        <f>(H50/44.6596)/J50</f>
+        <f t="shared" si="5"/>
         <v>2.6728869097413552E-2</v>
       </c>
       <c r="J50" s="3">
@@ -8023,18 +8023,18 @@
         <v>107</v>
       </c>
       <c r="F51" s="3" t="str">
-        <f>E51&amp;"-"&amp;C51</f>
+        <f t="shared" si="3"/>
         <v>gallo-OW</v>
       </c>
       <c r="G51" s="3" t="str">
-        <f>E51&amp;"-"&amp;A51</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H51" s="3">
         <v>24.110351395753383</v>
       </c>
       <c r="I51" s="3">
-        <f>(H51/44.6596)/J51</f>
+        <f t="shared" si="5"/>
         <v>0.10382103820107842</v>
       </c>
       <c r="J51" s="3">
@@ -8057,18 +8057,18 @@
         <v>108</v>
       </c>
       <c r="F52" s="3" t="str">
-        <f>E52&amp;"-"&amp;C52</f>
+        <f t="shared" si="3"/>
         <v>tross-OA</v>
       </c>
       <c r="G52" s="3" t="str">
-        <f>E52&amp;"-"&amp;A52</f>
+        <f t="shared" si="4"/>
         <v>tross-baseline</v>
       </c>
       <c r="H52" s="3">
         <v>20.034856394680588</v>
       </c>
       <c r="I52" s="3">
-        <f>(H52/44.6596)/J52</f>
+        <f t="shared" si="5"/>
         <v>7.8703953613244809E-2</v>
       </c>
       <c r="J52" s="3">
@@ -8094,18 +8094,18 @@
         <v>108</v>
       </c>
       <c r="F53" s="3" t="str">
-        <f>E53&amp;"-"&amp;C53</f>
+        <f t="shared" si="3"/>
         <v>tross-OA</v>
       </c>
       <c r="G53" s="3" t="str">
-        <f>E53&amp;"-"&amp;A53</f>
+        <f t="shared" si="4"/>
         <v>tross-baseline</v>
       </c>
       <c r="H53" s="3">
         <v>20.504151423071306</v>
       </c>
       <c r="I53" s="3">
-        <f>(H53/44.6596)/J53</f>
+        <f t="shared" si="5"/>
         <v>7.5265705444387071E-2</v>
       </c>
       <c r="J53" s="3">
@@ -8128,18 +8128,18 @@
         <v>108</v>
       </c>
       <c r="F54" s="3" t="str">
-        <f>E54&amp;"-"&amp;C54</f>
+        <f t="shared" si="3"/>
         <v>tross-OA</v>
       </c>
       <c r="G54" s="3" t="str">
-        <f>E54&amp;"-"&amp;A54</f>
+        <f t="shared" si="4"/>
         <v>tross-baseline</v>
       </c>
       <c r="H54" s="3">
         <v>27.122814624544219</v>
       </c>
       <c r="I54" s="3">
-        <f>(H54/44.6596)/J54</f>
+        <f t="shared" si="5"/>
         <v>8.931224662764102E-2</v>
       </c>
       <c r="J54" s="3">
@@ -8165,18 +8165,18 @@
         <v>108</v>
       </c>
       <c r="F55" s="3" t="str">
-        <f>E55&amp;"-"&amp;C55</f>
+        <f t="shared" si="3"/>
         <v>tross-OA</v>
       </c>
       <c r="G55" s="3" t="str">
-        <f>E55&amp;"-"&amp;A55</f>
+        <f t="shared" si="4"/>
         <v>tross-baseline</v>
       </c>
       <c r="H55" s="3">
         <v>32.691025692584049</v>
       </c>
       <c r="I55" s="3">
-        <f>(H55/44.6596)/J55</f>
+        <f t="shared" si="5"/>
         <v>0.12200074076116539</v>
       </c>
       <c r="J55" s="3">
@@ -8202,18 +8202,18 @@
         <v>108</v>
       </c>
       <c r="F56" s="3" t="str">
-        <f>E56&amp;"-"&amp;C56</f>
+        <f t="shared" si="3"/>
         <v>tross-OA</v>
       </c>
       <c r="G56" s="3" t="str">
-        <f>E56&amp;"-"&amp;A56</f>
+        <f t="shared" si="4"/>
         <v>tross-baseline</v>
       </c>
       <c r="H56" s="3">
         <v>21.375437249113645</v>
       </c>
       <c r="I56" s="3">
-        <f>(H56/44.6596)/J56</f>
+        <f t="shared" si="5"/>
         <v>8.1123777775695821E-2</v>
       </c>
       <c r="J56" s="3">
@@ -8239,18 +8239,18 @@
         <v>108</v>
       </c>
       <c r="F57" s="3" t="str">
-        <f>E57&amp;"-"&amp;C57</f>
+        <f t="shared" si="3"/>
         <v>tross-OA</v>
       </c>
       <c r="G57" s="3" t="str">
-        <f>E57&amp;"-"&amp;A57</f>
+        <f t="shared" si="4"/>
         <v>tross-baseline</v>
       </c>
       <c r="H57" s="3">
         <v>13.457213092547931</v>
       </c>
       <c r="I57" s="3">
-        <f>(H57/44.6596)/J57</f>
+        <f t="shared" si="5"/>
         <v>5.195320051875911E-2</v>
       </c>
       <c r="J57" s="3">
@@ -8276,18 +8276,18 @@
         <v>107</v>
       </c>
       <c r="F58" s="3" t="str">
-        <f>E58&amp;"-"&amp;C58</f>
+        <f t="shared" si="3"/>
         <v>gallo-OA</v>
       </c>
       <c r="G58" s="3" t="str">
-        <f>E58&amp;"-"&amp;A58</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H58" s="3">
         <v>5.7780125639204698</v>
       </c>
       <c r="I58" s="3">
-        <f>(H58/44.6596)/J58</f>
+        <f t="shared" si="5"/>
         <v>2.1928637143555939E-2</v>
       </c>
       <c r="J58" s="3">
@@ -8313,18 +8313,18 @@
         <v>107</v>
       </c>
       <c r="F59" s="3" t="str">
-        <f>E59&amp;"-"&amp;C59</f>
+        <f t="shared" si="3"/>
         <v>gallo-OA</v>
       </c>
       <c r="G59" s="3" t="str">
-        <f>E59&amp;"-"&amp;A59</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H59" s="3">
         <v>13.149435102212465</v>
       </c>
       <c r="I59" s="3">
-        <f>(H59/44.6596)/J59</f>
+        <f t="shared" si="5"/>
         <v>4.9904562824886839E-2</v>
       </c>
       <c r="J59" s="3">
@@ -8350,18 +8350,18 @@
         <v>107</v>
       </c>
       <c r="F60" s="3" t="str">
-        <f>E60&amp;"-"&amp;C60</f>
+        <f t="shared" si="3"/>
         <v>gallo-OA</v>
       </c>
       <c r="G60" s="3" t="str">
-        <f>E60&amp;"-"&amp;A60</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H60" s="3">
         <v>13.366815694287766</v>
       </c>
       <c r="I60" s="3">
-        <f>(H60/44.6596)/J60</f>
+        <f t="shared" si="5"/>
         <v>4.275777434603012E-2</v>
       </c>
       <c r="J60" s="3">
@@ -8387,18 +8387,18 @@
         <v>107</v>
       </c>
       <c r="F61" s="3" t="str">
-        <f>E61&amp;"-"&amp;C61</f>
+        <f t="shared" si="3"/>
         <v>gallo-OA</v>
       </c>
       <c r="G61" s="3" t="str">
-        <f>E61&amp;"-"&amp;A61</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H61" s="3">
         <v>5.6799192400605136</v>
       </c>
       <c r="I61" s="3">
-        <f>(H61/44.6596)/J61</f>
+        <f t="shared" si="5"/>
         <v>1.9270074614452279E-2</v>
       </c>
       <c r="J61" s="3">
@@ -8424,18 +8424,18 @@
         <v>107</v>
       </c>
       <c r="F62" s="3" t="str">
-        <f>E62&amp;"-"&amp;C62</f>
+        <f t="shared" si="3"/>
         <v>gallo-OA</v>
       </c>
       <c r="G62" s="3" t="str">
-        <f>E62&amp;"-"&amp;A62</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H62" s="3">
         <v>13.122387474807283</v>
       </c>
       <c r="I62" s="3">
-        <f>(H62/44.6596)/J62</f>
+        <f t="shared" si="5"/>
         <v>4.1975897278867844E-2</v>
       </c>
       <c r="J62" s="3">
@@ -8461,18 +8461,18 @@
         <v>107</v>
       </c>
       <c r="F63" s="3" t="str">
-        <f>E63&amp;"-"&amp;C63</f>
+        <f t="shared" si="3"/>
         <v>gallo-OA</v>
       </c>
       <c r="G63" s="3" t="str">
-        <f>E63&amp;"-"&amp;A63</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H63" s="3">
         <v>7.7732373804613815</v>
       </c>
       <c r="I63" s="3">
-        <f>(H63/44.6596)/J63</f>
+        <f t="shared" si="5"/>
         <v>2.2902005216481371E-2</v>
       </c>
       <c r="J63" s="3">
@@ -8495,18 +8495,18 @@
         <v>107</v>
       </c>
       <c r="F64" s="3" t="str">
-        <f>E64&amp;"-"&amp;C64</f>
+        <f t="shared" si="3"/>
         <v>gallo-OA</v>
       </c>
       <c r="G64" s="3" t="str">
-        <f>E64&amp;"-"&amp;A64</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H64" s="3">
         <v>24.054370755940699</v>
       </c>
       <c r="I64" s="3">
-        <f>(H64/44.6596)/J64</f>
+        <f t="shared" si="5"/>
         <v>7.5861394707750177E-2</v>
       </c>
       <c r="J64" s="3">
@@ -8529,18 +8529,18 @@
         <v>107</v>
       </c>
       <c r="F65" s="3" t="str">
-        <f>E65&amp;"-"&amp;C65</f>
+        <f t="shared" si="3"/>
         <v>gallo-OA</v>
       </c>
       <c r="G65" s="3" t="str">
-        <f>E65&amp;"-"&amp;A65</f>
+        <f t="shared" si="4"/>
         <v>gallo-final</v>
       </c>
       <c r="H65" s="3">
         <v>16.0555970677499</v>
       </c>
       <c r="I65" s="3">
-        <f>(H65/44.6596)/J65</f>
+        <f t="shared" si="5"/>
         <v>5.6173522419276527E-2</v>
       </c>
       <c r="J65" s="3">
@@ -8563,18 +8563,18 @@
         <v>107</v>
       </c>
       <c r="F66" s="3" t="str">
-        <f>E66&amp;"-"&amp;C66</f>
+        <f t="shared" ref="F66:F97" si="6">E66&amp;"-"&amp;C66</f>
         <v>gallo-OA</v>
       </c>
       <c r="G66" s="3" t="str">
-        <f>E66&amp;"-"&amp;A66</f>
+        <f t="shared" ref="G66:G81" si="7">E66&amp;"-"&amp;A66</f>
         <v>gallo-final</v>
       </c>
       <c r="H66" s="3">
         <v>25.32919749409723</v>
       </c>
       <c r="I66" s="3">
-        <f>(H66/44.6596)/J66</f>
+        <f t="shared" ref="I66:I97" si="8">(H66/44.6596)/J66</f>
         <v>9.2977264866875797E-2</v>
       </c>
       <c r="J66" s="3">
@@ -8597,18 +8597,18 @@
         <v>108</v>
       </c>
       <c r="F67" s="3" t="str">
-        <f>E67&amp;"-"&amp;C67</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G67" s="3" t="str">
-        <f>E67&amp;"-"&amp;A67</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H67" s="3">
         <v>54.668174545340918</v>
       </c>
       <c r="I67" s="3">
-        <f>(H67/44.6596)/J67</f>
+        <f t="shared" si="8"/>
         <v>0.20401800339061449</v>
       </c>
       <c r="J67" s="3">
@@ -8634,18 +8634,18 @@
         <v>108</v>
       </c>
       <c r="F68" s="3" t="str">
-        <f>E68&amp;"-"&amp;C68</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f>E68&amp;"-"&amp;A68</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H68" s="3">
         <v>85.083407581809126</v>
       </c>
       <c r="I68" s="3">
-        <f>(H68/44.6596)/J68</f>
+        <f t="shared" si="8"/>
         <v>0.30728287434572871</v>
       </c>
       <c r="J68" s="3">
@@ -8671,18 +8671,18 @@
         <v>108</v>
       </c>
       <c r="F69" s="3" t="str">
-        <f>E69&amp;"-"&amp;C69</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G69" s="3" t="str">
-        <f>E69&amp;"-"&amp;A69</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H69" s="3">
         <v>43.188085092586903</v>
       </c>
       <c r="I69" s="3">
-        <f>(H69/44.6596)/J69</f>
+        <f t="shared" si="8"/>
         <v>0.16117507058052058</v>
       </c>
       <c r="J69" s="3">
@@ -8708,18 +8708,18 @@
         <v>108</v>
       </c>
       <c r="F70" s="3" t="str">
-        <f>E70&amp;"-"&amp;C70</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G70" s="3" t="str">
-        <f>E70&amp;"-"&amp;A70</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H70" s="3">
         <v>31.835297079433388</v>
       </c>
       <c r="I70" s="3">
-        <f>(H70/44.6596)/J70</f>
+        <f t="shared" si="8"/>
         <v>0.11880721830406522</v>
       </c>
       <c r="J70" s="3">
@@ -8745,18 +8745,18 @@
         <v>108</v>
       </c>
       <c r="F71" s="3" t="str">
-        <f>E71&amp;"-"&amp;C71</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G71" s="3" t="str">
-        <f>E71&amp;"-"&amp;A71</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H71" s="3">
         <v>4.5036700122184925</v>
       </c>
       <c r="I71" s="3">
-        <f>(H71/44.6596)/J71</f>
+        <f t="shared" si="8"/>
         <v>1.7691997823608908E-2</v>
       </c>
       <c r="J71" s="3">
@@ -8779,18 +8779,18 @@
         <v>108</v>
       </c>
       <c r="F72" s="3" t="str">
-        <f>E72&amp;"-"&amp;C72</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G72" s="3" t="str">
-        <f>E72&amp;"-"&amp;A72</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H72" s="3">
         <v>34.808972423194859</v>
       </c>
       <c r="I72" s="3">
-        <f>(H72/44.6596)/J72</f>
+        <f t="shared" si="8"/>
         <v>0.13210655344964589</v>
       </c>
       <c r="J72" s="3">
@@ -8816,18 +8816,18 @@
         <v>108</v>
       </c>
       <c r="F73" s="3" t="str">
-        <f>E73&amp;"-"&amp;C73</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G73" s="3" t="str">
-        <f>E73&amp;"-"&amp;A73</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H73" s="3">
         <v>5.0741784874749669</v>
       </c>
       <c r="I73" s="3">
-        <f>(H73/44.6596)/J73</f>
+        <f t="shared" si="8"/>
         <v>1.8325642976574075E-2</v>
       </c>
       <c r="J73" s="3">
@@ -8850,18 +8850,18 @@
         <v>108</v>
       </c>
       <c r="F74" s="3" t="str">
-        <f>E74&amp;"-"&amp;C74</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G74" s="3" t="str">
-        <f>E74&amp;"-"&amp;A74</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H74" s="3">
         <v>33.89714245941741</v>
       </c>
       <c r="I74" s="3">
-        <f>(H74/44.6596)/J74</f>
+        <f t="shared" si="8"/>
         <v>0.11500171689108959</v>
       </c>
       <c r="J74" s="3">
@@ -8887,18 +8887,18 @@
         <v>108</v>
       </c>
       <c r="F75" s="3" t="str">
-        <f>E75&amp;"-"&amp;C75</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G75" s="3" t="str">
-        <f>E75&amp;"-"&amp;A75</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H75" s="3">
         <v>7.7831046763466532</v>
       </c>
       <c r="I75" s="3">
-        <f>(H75/44.6596)/J75</f>
+        <f t="shared" si="8"/>
         <v>2.8109061969361113E-2</v>
       </c>
       <c r="J75" s="3">
@@ -8921,18 +8921,18 @@
         <v>108</v>
       </c>
       <c r="F76" s="3" t="str">
-        <f>E76&amp;"-"&amp;C76</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G76" s="3" t="str">
-        <f>E76&amp;"-"&amp;A76</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H76" s="3">
         <v>36.760430916071527</v>
       </c>
       <c r="I76" s="3">
-        <f>(H76/44.6596)/J76</f>
+        <f t="shared" si="8"/>
         <v>0.14440788556835121</v>
       </c>
       <c r="J76" s="3">
@@ -8958,18 +8958,18 @@
         <v>108</v>
       </c>
       <c r="F77" s="3" t="str">
-        <f>E77&amp;"-"&amp;C77</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G77" s="3" t="str">
-        <f>E77&amp;"-"&amp;A77</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H77" s="3">
         <v>29.11807384331189</v>
       </c>
       <c r="I77" s="3">
-        <f>(H77/44.6596)/J77</f>
+        <f t="shared" si="8"/>
         <v>0.10688529965364189</v>
       </c>
       <c r="J77" s="3">
@@ -8992,18 +8992,18 @@
         <v>108</v>
       </c>
       <c r="F78" s="3" t="str">
-        <f>E78&amp;"-"&amp;C78</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G78" s="3" t="str">
-        <f>E78&amp;"-"&amp;A78</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H78" s="3">
         <v>21.445705136219601</v>
       </c>
       <c r="I78" s="3">
-        <f>(H78/44.6596)/J78</f>
+        <f t="shared" si="8"/>
         <v>7.0618191096452232E-2</v>
       </c>
       <c r="J78" s="3">
@@ -9029,18 +9029,18 @@
         <v>108</v>
       </c>
       <c r="F79" s="3" t="str">
-        <f>E79&amp;"-"&amp;C79</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G79" s="3" t="str">
-        <f>E79&amp;"-"&amp;A79</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H79" s="3">
         <v>4.7761822167864807</v>
       </c>
       <c r="I79" s="3">
-        <f>(H79/44.6596)/J79</f>
+        <f t="shared" si="8"/>
         <v>1.7824395414746515E-2</v>
       </c>
       <c r="J79" s="3">
@@ -9066,18 +9066,18 @@
         <v>108</v>
       </c>
       <c r="F80" s="3" t="str">
-        <f>E80&amp;"-"&amp;C80</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G80" s="3" t="str">
-        <f>E80&amp;"-"&amp;A80</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H80" s="3">
         <v>32.193144675444273</v>
       </c>
       <c r="I80" s="3">
-        <f>(H80/44.6596)/J80</f>
+        <f t="shared" si="8"/>
         <v>0.12217899845112458</v>
       </c>
       <c r="J80" s="3">
@@ -9103,18 +9103,18 @@
         <v>108</v>
       </c>
       <c r="F81" s="3" t="str">
-        <f>E81&amp;"-"&amp;C81</f>
+        <f t="shared" si="6"/>
         <v>tross-OA</v>
       </c>
       <c r="G81" s="3" t="str">
-        <f>E81&amp;"-"&amp;A81</f>
+        <f t="shared" si="7"/>
         <v>tross-final</v>
       </c>
       <c r="H81" s="3">
         <v>34.077829406593224</v>
       </c>
       <c r="I81" s="3">
-        <f>(H81/44.6596)/J81</f>
+        <f t="shared" si="8"/>
         <v>0.13156158650599131</v>
       </c>
       <c r="J81" s="3">
@@ -9137,18 +9137,18 @@
         <v>108</v>
       </c>
       <c r="F82" s="3" t="str">
-        <f t="shared" ref="F80:F111" si="0">E82&amp;"-"&amp;C82</f>
+        <f t="shared" ref="F82:F111" si="9">E82&amp;"-"&amp;C82</f>
         <v>tross-OW</v>
       </c>
       <c r="G82" s="3" t="str">
-        <f t="shared" ref="G80:G111" si="1">E82&amp;"-"&amp;A82</f>
+        <f t="shared" ref="G82:G111" si="10">E82&amp;"-"&amp;A82</f>
         <v>tross-baseline</v>
       </c>
       <c r="H82" s="3">
         <v>31.740490962939134</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" ref="I80:I111" si="2">(H82/44.6596)/J82</f>
+        <f t="shared" ref="I82:I111" si="11">(H82/44.6596)/J82</f>
         <v>0.12468779806537789</v>
       </c>
       <c r="J82" s="3">
@@ -9174,18 +9174,18 @@
         <v>108</v>
       </c>
       <c r="F83" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G83" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H83" s="3">
         <v>17.7297001885639</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6.4031676563865256E-2</v>
       </c>
       <c r="J83" s="3">
@@ -9211,18 +9211,18 @@
         <v>108</v>
       </c>
       <c r="F84" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G84" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H84" s="3">
         <v>27.471508568879727</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.10084116281601976</v>
       </c>
       <c r="J84" s="3">
@@ -9248,18 +9248,18 @@
         <v>108</v>
       </c>
       <c r="F85" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G85" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H85" s="3">
         <v>18.910575128307528</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7.1769165535223542E-2</v>
       </c>
       <c r="J85" s="3">
@@ -9282,18 +9282,18 @@
         <v>108</v>
       </c>
       <c r="F86" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G86" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H86" s="3">
         <v>17.991716146640812</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7.7473721502555798E-2</v>
       </c>
       <c r="J86" s="3">
@@ -9319,18 +9319,18 @@
         <v>108</v>
       </c>
       <c r="F87" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G87" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H87" s="3">
         <v>42.493818116309399</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.16693064447238315</v>
       </c>
       <c r="J87" s="3">
@@ -9356,18 +9356,18 @@
         <v>108</v>
       </c>
       <c r="F88" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G88" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H88" s="3">
         <v>16.775582475847099</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6.0585833930612829E-2</v>
       </c>
       <c r="J88" s="3">
@@ -9393,18 +9393,18 @@
         <v>108</v>
       </c>
       <c r="F89" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G89" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H89" s="3">
         <v>23.3310853658915</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8.0372366716197463E-2</v>
       </c>
       <c r="J89" s="3">
@@ -9430,18 +9430,18 @@
         <v>108</v>
       </c>
       <c r="F90" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G90" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H90" s="3">
         <v>21.929789916751247</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7.7943354495001296E-2</v>
       </c>
       <c r="J90" s="3">
@@ -9467,18 +9467,18 @@
         <v>108</v>
       </c>
       <c r="F91" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G91" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H91" s="3">
         <v>32.426178043477989</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.12518518643973059</v>
       </c>
       <c r="J91" s="3">
@@ -9504,18 +9504,18 @@
         <v>108</v>
       </c>
       <c r="F92" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G92" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H92" s="3">
         <v>32.110007693848246</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.13826817704561173</v>
       </c>
       <c r="J92" s="3">
@@ -9541,18 +9541,18 @@
         <v>108</v>
       </c>
       <c r="F93" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G93" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H93" s="3">
         <v>32.370377595602235</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.13938934998385322</v>
       </c>
       <c r="J93" s="3">
@@ -9578,18 +9578,18 @@
         <v>108</v>
       </c>
       <c r="F94" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G94" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H94" s="3">
         <v>20.476813192907002</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7.9053216626656486E-2</v>
       </c>
       <c r="J94" s="3">
@@ -9615,18 +9615,18 @@
         <v>108</v>
       </c>
       <c r="F95" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G95" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H95" s="3">
         <v>18.746029963363128</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6.1728477466418949E-2</v>
       </c>
       <c r="J95" s="3">
@@ -9652,18 +9652,18 @@
         <v>108</v>
       </c>
       <c r="F96" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G96" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-baseline</v>
       </c>
       <c r="H96" s="3">
         <v>25.46901911380337</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.10183788317550735</v>
       </c>
       <c r="J96" s="3">
@@ -9686,18 +9686,18 @@
         <v>108</v>
       </c>
       <c r="F97" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G97" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H97" s="3">
         <v>46.211800909570101</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.18153618690957904</v>
       </c>
       <c r="J97" s="3">
@@ -9723,18 +9723,18 @@
         <v>108</v>
       </c>
       <c r="F98" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G98" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H98" s="3">
         <v>40.381724456600708</v>
       </c>
       <c r="I98" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.14584056650681726</v>
       </c>
       <c r="J98" s="3">
@@ -9760,18 +9760,18 @@
         <v>108</v>
       </c>
       <c r="F99" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G99" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H99" s="3">
         <v>27.945535272972279</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.10258119845791709</v>
       </c>
       <c r="J99" s="3">
@@ -9797,18 +9797,18 @@
         <v>108</v>
       </c>
       <c r="F100" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G100" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H100" s="3">
         <v>21.303568645139251</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8.0851022996931712E-2</v>
       </c>
       <c r="J100" s="3">
@@ -9831,18 +9831,18 @@
         <v>108</v>
       </c>
       <c r="F101" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G101" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H101" s="3">
         <v>62.323872344648578</v>
       </c>
       <c r="I101" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.26837141546898252</v>
       </c>
       <c r="J101" s="3">
@@ -9868,18 +9868,18 @@
         <v>108</v>
       </c>
       <c r="F102" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G102" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H102" s="3">
         <v>26.242562128501163</v>
       </c>
       <c r="I102" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.10309000233226673</v>
       </c>
       <c r="J102" s="3">
@@ -9905,18 +9905,18 @@
         <v>108</v>
       </c>
       <c r="F103" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G103" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H103" s="3">
         <v>42.520067467445728</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.1535632965359098</v>
       </c>
       <c r="J103" s="3">
@@ -9942,18 +9942,18 @@
         <v>108</v>
       </c>
       <c r="F104" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G104" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H104" s="3">
         <v>59.797800702833598</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.2059951644571332</v>
       </c>
       <c r="J104" s="3">
@@ -9979,18 +9979,18 @@
         <v>108</v>
       </c>
       <c r="F105" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G105" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H105" s="3">
         <v>51.240781435868541</v>
       </c>
       <c r="I105" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.18212114239206767</v>
       </c>
       <c r="J105" s="3">
@@ -10016,18 +10016,18 @@
         <v>108</v>
       </c>
       <c r="F106" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G106" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H106" s="3">
         <v>32.619877323942248</v>
       </c>
       <c r="I106" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.12593298596472075</v>
       </c>
       <c r="J106" s="3">
@@ -10053,18 +10053,18 @@
         <v>108</v>
       </c>
       <c r="F107" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G107" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H107" s="3">
         <v>54.727843244140999</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.23566232656042338</v>
       </c>
       <c r="J107" s="3">
@@ -10090,18 +10090,18 @@
         <v>108</v>
       </c>
       <c r="F108" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G108" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H108" s="3">
         <v>16.553436712527372</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7.1280378999085792E-2</v>
       </c>
       <c r="J108" s="3">
@@ -10127,18 +10127,18 @@
         <v>108</v>
       </c>
       <c r="F109" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G109" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H109" s="3">
         <v>46.057820867242441</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.17781179405548686</v>
       </c>
       <c r="J109" s="3">
@@ -10164,18 +10164,18 @@
         <v>108</v>
       </c>
       <c r="F110" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G110" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H110" s="3">
         <v>40.928399521662953</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.1347724180825062</v>
       </c>
       <c r="J110" s="3">
@@ -10201,18 +10201,18 @@
         <v>108</v>
       </c>
       <c r="F111" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>tross-OW</v>
       </c>
       <c r="G111" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>tross-final</v>
       </c>
       <c r="H111" s="3">
         <v>24.610790484352236</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>9.8406255655288002E-2</v>
       </c>
       <c r="J111" s="3">
@@ -10235,18 +10235,18 @@
         <v>108</v>
       </c>
       <c r="F112" s="3" t="str">
-        <f t="shared" ref="F112:F129" si="3">E112&amp;"-"&amp;C112</f>
+        <f t="shared" ref="F112:F129" si="12">E112&amp;"-"&amp;C112</f>
         <v>tross-DO</v>
       </c>
       <c r="G112" s="3" t="str">
-        <f t="shared" ref="G112:G129" si="4">E112&amp;"-"&amp;A112</f>
+        <f t="shared" ref="G112:G129" si="13">E112&amp;"-"&amp;A112</f>
         <v>tross-baseline</v>
       </c>
       <c r="H112" s="3">
         <v>23.583678484466873</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" ref="I112:I129" si="5">(H112/44.6596)/J112</f>
+        <f t="shared" ref="I112:I129" si="14">(H112/44.6596)/J112</f>
         <v>8.5173604564256794E-2</v>
       </c>
       <c r="J112" s="3">
@@ -10269,18 +10269,18 @@
         <v>108</v>
       </c>
       <c r="F113" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G113" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-final</v>
       </c>
       <c r="H113" s="3">
         <v>161.46699842093406</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.5831459364042888</v>
       </c>
       <c r="J113" s="3">
@@ -10303,18 +10303,18 @@
         <v>108</v>
       </c>
       <c r="F114" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G114" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-baseline</v>
       </c>
       <c r="H114" s="3">
         <v>13.053122079207498</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>5.6207753416129574E-2</v>
       </c>
       <c r="J114" s="3">
@@ -10337,18 +10337,18 @@
         <v>108</v>
       </c>
       <c r="F115" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G115" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-final</v>
       </c>
       <c r="H115" s="3">
         <v>74.759674984636504</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.32192094362619811</v>
       </c>
       <c r="J115" s="3">
@@ -10371,18 +10371,18 @@
         <v>108</v>
       </c>
       <c r="F116" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G116" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-baseline</v>
       </c>
       <c r="H116" s="3">
         <v>19.055109468873155</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7.6191862879238403E-2</v>
       </c>
       <c r="J116" s="3">
@@ -10408,18 +10408,18 @@
         <v>108</v>
       </c>
       <c r="F117" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G117" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-baseline</v>
       </c>
       <c r="H117" s="3">
         <v>19.722639437857765</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.5913656370376633E-2</v>
       </c>
       <c r="J117" s="3">
@@ -10445,18 +10445,18 @@
         <v>108</v>
       </c>
       <c r="F118" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G118" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-final</v>
       </c>
       <c r="H118" s="3">
         <v>42.451505671478429</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.14187421344142628</v>
       </c>
       <c r="J118" s="3">
@@ -10482,18 +10482,18 @@
         <v>108</v>
       </c>
       <c r="F119" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G119" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-baseline</v>
       </c>
       <c r="H119" s="3">
         <v>20.084732572613376</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7.7539541919601856E-2</v>
       </c>
       <c r="J119" s="3">
@@ -10519,18 +10519,18 @@
         <v>108</v>
       </c>
       <c r="F120" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G120" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-final</v>
       </c>
       <c r="H120" s="3">
         <v>45.609974551307999</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.17608282912840151</v>
       </c>
       <c r="J120" s="3">
@@ -10553,18 +10553,18 @@
         <v>108</v>
       </c>
       <c r="F121" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G121" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-baseline</v>
       </c>
       <c r="H121" s="3">
         <v>21.623991176582479</v>
       </c>
       <c r="I121" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7.6856477707782631E-2</v>
       </c>
       <c r="J121" s="3">
@@ -10590,18 +10590,18 @@
         <v>108</v>
       </c>
       <c r="F122" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G122" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-baseline</v>
       </c>
       <c r="H122" s="3">
         <v>29.657473038047584</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.12297747039103527</v>
       </c>
       <c r="J122" s="3">
@@ -10627,18 +10627,18 @@
         <v>108</v>
       </c>
       <c r="F123" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G123" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-final</v>
       </c>
       <c r="H123" s="3">
         <v>49.589915215406791</v>
       </c>
       <c r="I123" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.20562919579402275</v>
       </c>
       <c r="J123" s="3">
@@ -10661,18 +10661,18 @@
         <v>108</v>
       </c>
       <c r="F124" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G124" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-baseline</v>
       </c>
       <c r="H124" s="3">
         <v>11.997960782368239</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.4775594281961921E-2</v>
       </c>
       <c r="J124" s="3">
@@ -10695,18 +10695,18 @@
         <v>108</v>
       </c>
       <c r="F125" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G125" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-final</v>
       </c>
       <c r="H125" s="3">
         <v>52.383914514179999</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.1954932963803975</v>
       </c>
       <c r="J125" s="3">
@@ -10732,18 +10732,18 @@
         <v>108</v>
       </c>
       <c r="F126" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G126" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-baseline</v>
       </c>
       <c r="H126" s="3">
         <v>19.211532570080976</v>
       </c>
       <c r="I126" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7.6817320712363954E-2</v>
       </c>
       <c r="J126" s="3">
@@ -10769,18 +10769,18 @@
         <v>108</v>
       </c>
       <c r="F127" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G127" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-baseline</v>
       </c>
       <c r="H127" s="3">
         <v>22.813722474669618</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>9.2879236286241298E-2</v>
       </c>
       <c r="J127" s="3">
@@ -10806,18 +10806,18 @@
         <v>108</v>
       </c>
       <c r="F128" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G128" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-final</v>
       </c>
       <c r="H128" s="3">
         <v>52.790483780396997</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.21492063919636539</v>
       </c>
       <c r="J128" s="3">
@@ -10840,18 +10840,18 @@
         <v>108</v>
       </c>
       <c r="F129" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>tross-DO</v>
       </c>
       <c r="G129" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>tross-baseline</v>
       </c>
       <c r="H129" s="3">
         <v>18.861131654677962</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7.2815682424530126E-2</v>
       </c>
       <c r="J129" s="3">
@@ -10874,18 +10874,18 @@
         <v>108</v>
       </c>
       <c r="F130" s="3" t="str">
-        <f t="shared" ref="F130:F138" si="6">E130&amp;"-"&amp;C130</f>
+        <f t="shared" ref="F130:F138" si="15">E130&amp;"-"&amp;C130</f>
         <v>tross-DO</v>
       </c>
       <c r="G130" s="3" t="str">
-        <f t="shared" ref="G130:G138" si="7">E130&amp;"-"&amp;A130</f>
+        <f t="shared" ref="G130:G138" si="16">E130&amp;"-"&amp;A130</f>
         <v>tross-baseline</v>
       </c>
       <c r="H130" s="3">
         <v>21.147040392140497</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" ref="I130:I138" si="8">(H130/44.6596)/J130</f>
+        <f t="shared" ref="I130:I138" si="17">(H130/44.6596)/J130</f>
         <v>8.3073003034967577E-2</v>
       </c>
       <c r="J130" s="3">
@@ -10908,18 +10908,18 @@
         <v>108</v>
       </c>
       <c r="F131" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>tross-DO</v>
       </c>
       <c r="G131" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>tross-final</v>
       </c>
       <c r="H131" s="3">
         <v>29.676963240458001</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.11658153631084289</v>
       </c>
       <c r="J131" s="3">
@@ -10945,18 +10945,18 @@
         <v>108</v>
       </c>
       <c r="F132" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>tross-DO</v>
       </c>
       <c r="G132" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>tross-baseline</v>
       </c>
       <c r="H132" s="3">
         <v>24.529356638408018</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.6359929365132935E-2</v>
       </c>
       <c r="J132" s="3">
@@ -10982,18 +10982,18 @@
         <v>108</v>
       </c>
       <c r="F133" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>tross-DO</v>
       </c>
       <c r="G133" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>tross-baseline</v>
       </c>
       <c r="H133" s="3">
         <v>27.098894019899745</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.9473386295589675E-2</v>
       </c>
       <c r="J133" s="3">
@@ -11019,18 +11019,18 @@
         <v>108</v>
       </c>
       <c r="F134" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>tross-DO</v>
       </c>
       <c r="G134" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>tross-final</v>
       </c>
       <c r="H134" s="3">
         <v>39.258528686482997</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.1441084195745882</v>
       </c>
       <c r="J134" s="3">
@@ -11056,18 +11056,18 @@
         <v>108</v>
       </c>
       <c r="F135" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>tross-DO</v>
       </c>
       <c r="G135" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>tross-baseline</v>
       </c>
       <c r="H135" s="3">
         <v>14.257475822389807</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.700852281316339E-2</v>
       </c>
       <c r="J135" s="3">
@@ -11093,18 +11093,18 @@
         <v>108</v>
       </c>
       <c r="F136" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>tross-DO</v>
       </c>
       <c r="G136" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>tross-final</v>
       </c>
       <c r="H136" s="3">
         <v>36.219813473522997</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.14482493874906355</v>
       </c>
       <c r="J136" s="3">
@@ -11130,18 +11130,18 @@
         <v>108</v>
       </c>
       <c r="F137" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>tross-DO</v>
       </c>
       <c r="G137" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>tross-baseline</v>
       </c>
       <c r="H137" s="3">
         <v>14.545931023769526</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5.0108723367840037E-2</v>
       </c>
       <c r="J137" s="3">
@@ -11167,18 +11167,18 @@
         <v>108</v>
       </c>
       <c r="F138" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>tross-DO</v>
       </c>
       <c r="G138" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>tross-final</v>
       </c>
       <c r="H138" s="3">
         <v>49.979996812712002</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0.17217418604015194</v>
       </c>
       <c r="J138" s="3">
@@ -11205,7 +11205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D63B0B-C8E1-4119-8116-E53995AC7AFF}">
   <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
